--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N2">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q2">
-        <v>28.13484005712089</v>
+        <v>1.429470816490444</v>
       </c>
       <c r="R2">
-        <v>253.213560514088</v>
+        <v>12.865237348414</v>
       </c>
       <c r="S2">
-        <v>0.009389801215801083</v>
+        <v>0.0006315730448762529</v>
       </c>
       <c r="T2">
-        <v>0.009389801215801085</v>
+        <v>0.0006315730448762527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q3">
-        <v>101.0094703672827</v>
+        <v>28.68983793258933</v>
       </c>
       <c r="R3">
-        <v>909.0852333055441</v>
+        <v>258.208541393304</v>
       </c>
       <c r="S3">
-        <v>0.03371118676120147</v>
+        <v>0.01267582946854291</v>
       </c>
       <c r="T3">
-        <v>0.03371118676120147</v>
+        <v>0.01267582946854291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N4">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q4">
-        <v>21.271470839366</v>
+        <v>3.869961522262444</v>
       </c>
       <c r="R4">
-        <v>191.443237554294</v>
+        <v>34.829653700362</v>
       </c>
       <c r="S4">
-        <v>0.007099200931792876</v>
+        <v>0.001709837902231542</v>
       </c>
       <c r="T4">
-        <v>0.007099200931792876</v>
+        <v>0.001709837902231542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N5">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q5">
-        <v>495.8125567230697</v>
+        <v>88.69157415752211</v>
       </c>
       <c r="R5">
-        <v>4462.313010507628</v>
+        <v>798.2241674176991</v>
       </c>
       <c r="S5">
-        <v>0.1654738871262715</v>
+        <v>0.03918597490717549</v>
       </c>
       <c r="T5">
-        <v>0.1654738871262716</v>
+        <v>0.03918597490717549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.868724</v>
       </c>
       <c r="O6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q6">
         <v>1780.062145523729</v>
@@ -818,10 +818,10 @@
         <v>16020.55930971357</v>
       </c>
       <c r="S6">
-        <v>0.5940829826757734</v>
+        <v>0.7864723479123173</v>
       </c>
       <c r="T6">
-        <v>0.5940829826757734</v>
+        <v>0.7864723479123173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N7">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q7">
-        <v>374.861286601021</v>
+        <v>240.1119179062241</v>
       </c>
       <c r="R7">
-        <v>3373.751579409189</v>
+        <v>2161.007261156018</v>
       </c>
       <c r="S7">
-        <v>0.1251072676274963</v>
+        <v>0.1060869612402644</v>
       </c>
       <c r="T7">
-        <v>0.1251072676274963</v>
+        <v>0.1060869612402644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N8">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q8">
-        <v>36.50547538403066</v>
+        <v>5.067603334545889</v>
       </c>
       <c r="R8">
-        <v>328.5492784562759</v>
+        <v>45.608430010913</v>
       </c>
       <c r="S8">
-        <v>0.0121834407605815</v>
+        <v>0.002238983567416952</v>
       </c>
       <c r="T8">
-        <v>0.0121834407605815</v>
+        <v>0.002238983567416952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.868724</v>
       </c>
       <c r="O9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q9">
-        <v>131.061656172932</v>
+        <v>101.7080703555187</v>
       </c>
       <c r="R9">
-        <v>1179.554905556388</v>
+        <v>915.372633199668</v>
       </c>
       <c r="S9">
-        <v>0.04374088837821655</v>
+        <v>0.04493696194556236</v>
       </c>
       <c r="T9">
-        <v>0.04374088837821655</v>
+        <v>0.04493696194556236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N10">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q10">
-        <v>27.60012687230699</v>
+        <v>13.71936361941989</v>
       </c>
       <c r="R10">
-        <v>248.401141850763</v>
+        <v>123.474272574779</v>
       </c>
       <c r="S10">
-        <v>0.009211344522865324</v>
+        <v>0.006061530011612817</v>
       </c>
       <c r="T10">
-        <v>0.009211344522865324</v>
+        <v>0.006061530011612817</v>
       </c>
     </row>
   </sheetData>
